--- a/monument-classes/data.xlsx
+++ b/monument-classes/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Clare\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41e2a39a697455e7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78383DAA-CC84-4E42-9C0C-93A27B6A52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{78383DAA-CC84-4E42-9C0C-93A27B6A52D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CFFDCC-1F2F-4B67-9CD4-D794BF43DACA}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{1A8DC4B3-0EA5-4944-98C0-C27F0B7E477A}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{1A8DC4B3-0EA5-4944-98C0-C27F0B7E477A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="271">
   <si>
     <t>Code number</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Kingarth, Bute</t>
   </si>
   <si>
-    <t>L|och Brie, Mull</t>
-  </si>
-  <si>
     <t>Machrie Burn, Arran</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t xml:space="preserve">Cerrig Gaerau, POewys </t>
   </si>
   <si>
-    <t xml:space="preserve"> Cerrig Pryfraid , |Gwyb</t>
-  </si>
-  <si>
     <t>Penmarnmawr, Druid's Circle</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>Led Croen Yr Ych , Powys</t>
   </si>
   <si>
-    <t>Llyn Y Tarw , Powys</t>
-  </si>
-  <si>
     <t>Meini Gwyr,  Pem</t>
   </si>
   <si>
@@ -446,9 +437,6 @@
     <t>Appletreewick, Yorks</t>
   </si>
   <si>
-    <t xml:space="preserve">Car[perby, N. Yorks </t>
-  </si>
-  <si>
     <t>Cheetham's Close</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
     <t>Penhurrock, C</t>
   </si>
   <si>
-    <t>Little Meg?Maughanby, C</t>
-  </si>
-  <si>
     <t>Grey Coft/Secsle, c</t>
   </si>
   <si>
@@ -626,9 +611,6 @@
     <t>Backhill of Drachlaw, Abere</t>
   </si>
   <si>
-    <t> Brankam Hill 2 Angus</t>
-  </si>
-  <si>
     <t>Cairnpapple</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
     <t>South Ytsie, Aber</t>
   </si>
   <si>
-    <t> Upper Auchnagorth, Aber</t>
-  </si>
-  <si>
     <t>Nine Stoines, Corn</t>
   </si>
   <si>
@@ -783,13 +762,100 @@
   </si>
   <si>
     <t>diam 4</t>
+  </si>
+  <si>
+    <t>Llyn Y Tawr</t>
+  </si>
+  <si>
+    <t>Arbor Low</t>
+  </si>
+  <si>
+    <t>Carperby</t>
+  </si>
+  <si>
+    <t>Cairnwell</t>
+  </si>
+  <si>
+    <t>Castlerudxdery</t>
+  </si>
+  <si>
+    <t>Coate</t>
+  </si>
+  <si>
+    <t>Dun Ruadh</t>
+  </si>
+  <si>
+    <t>Loch Buie</t>
+  </si>
+  <si>
+    <t>Nine Stones</t>
+  </si>
+  <si>
+    <t>Ring of Bfrodgar</t>
+  </si>
+  <si>
+    <t>Stonehenge</t>
+  </si>
+  <si>
+    <t>Stones of Stenness</t>
+  </si>
+  <si>
+    <t>Druids Altar, Yorks</t>
+  </si>
+  <si>
+    <t>Lochbuie</t>
+  </si>
+  <si>
+    <t>Templewood</t>
+  </si>
+  <si>
+    <t>The Sanctuary</t>
+  </si>
+  <si>
+    <t>Torbrfeck</t>
+  </si>
+  <si>
+    <t>Callanaish</t>
+  </si>
+  <si>
+    <t>Threestones Burn</t>
+  </si>
+  <si>
+    <t>Lacra A</t>
+  </si>
+  <si>
+    <t>Lacra B</t>
+  </si>
+  <si>
+    <t>Llacra D</t>
+  </si>
+  <si>
+    <t>Little Meg</t>
+  </si>
+  <si>
+    <t>Sdtanton Drew, Gt</t>
+  </si>
+  <si>
+    <t>Stangton Drew NE</t>
+  </si>
+  <si>
+    <t>Stanton Drew SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cerrig Pryfraid </t>
+  </si>
+  <si>
+    <t> Brankam Hill 2</t>
+  </si>
+  <si>
+    <t> Upper Auchnagorth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +865,13 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -870,11 +943,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,6 +963,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,24 +1266,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A0ACC5-B143-4452-9F2A-608FDDD8ADFF}">
-  <dimension ref="A1:BC204"/>
+  <dimension ref="A1:BC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN133" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="6.765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="46" width="6.765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.23046875" style="13"/>
-    <col min="50" max="50" width="9.23046875" style="7"/>
+    <col min="1" max="1" width="62.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="46" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.19921875" style="13"/>
+    <col min="50" max="50" width="9.19921875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1344,7 @@
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" ht="354" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="360" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -1401,16 +1480,16 @@
         <v>24</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AW2" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX2" s="16" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="AX2" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
@@ -1418,9 +1497,9 @@
       <c r="BB2" s="3"/>
       <c r="BC2" s="3"/>
     </row>
-    <row r="3" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1443,7 +1522,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1489,9 +1568,9 @@
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
     </row>
-    <row r="4" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1512,7 +1591,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="2"/>
@@ -1558,9 +1637,9 @@
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
     </row>
-    <row r="5" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1583,7 +1662,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="2"/>
@@ -1627,9 +1706,9 @@
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
     </row>
-    <row r="6" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -1652,7 +1731,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="2"/>
@@ -1696,9 +1775,9 @@
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
     </row>
-    <row r="7" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -1721,7 +1800,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1765,9 +1844,9 @@
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
     </row>
-    <row r="8" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1790,7 +1869,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="2"/>
@@ -1834,9 +1913,9 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
     </row>
-    <row r="9" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1859,7 +1938,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T9" s="2"/>
@@ -1905,9 +1984,9 @@
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
     </row>
-    <row r="10" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -1930,7 +2009,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="2"/>
@@ -1974,9 +2053,9 @@
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
     </row>
-    <row r="11" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1999,7 +2078,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="2"/>
@@ -2043,7 +2122,7 @@
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
     </row>
-    <row r="12" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2147,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -2112,9 +2191,9 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
     </row>
-    <row r="13" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -2137,7 +2216,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T13" s="2"/>
@@ -2181,9 +2260,9 @@
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
     </row>
-    <row r="14" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -2206,7 +2285,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T14" s="2"/>
@@ -2250,9 +2329,9 @@
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
     </row>
-    <row r="15" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A15" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2275,7 +2354,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -2314,7 +2393,7 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="5" t="s">
+      <c r="AX15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AY15" s="2"/>
@@ -2323,9 +2402,9 @@
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
     </row>
-    <row r="16" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A16" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -2348,7 +2427,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2396,9 +2475,9 @@
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
     </row>
-    <row r="17" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -2421,7 +2500,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2465,9 +2544,9 @@
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
     </row>
-    <row r="18" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -2490,7 +2569,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="2"/>
@@ -2536,9 +2615,9 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
     </row>
-    <row r="19" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2561,7 +2640,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2" t="s">
@@ -2571,7 +2650,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="5"/>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -2595,21 +2674,21 @@
         <v>48</v>
       </c>
       <c r="AT19" s="2"/>
-      <c r="AU19" s="8" t="s">
+      <c r="AU19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="5"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
     </row>
-    <row r="20" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -2632,7 +2711,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="2"/>
@@ -2676,9 +2755,9 @@
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
     </row>
-    <row r="21" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -2701,7 +2780,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T21" s="2"/>
@@ -2745,9 +2824,9 @@
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
     </row>
-    <row r="22" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -2770,7 +2849,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -2812,9 +2891,9 @@
       <c r="BB22" s="2"/>
       <c r="BC22" s="2"/>
     </row>
-    <row r="23" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A23" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -2837,7 +2916,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2" t="s">
@@ -2885,9 +2964,9 @@
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
     </row>
-    <row r="24" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -2912,7 +2991,7 @@
       <c r="R24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T24" s="2"/>
@@ -2956,9 +3035,9 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
     </row>
-    <row r="25" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A25" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2981,7 +3060,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T25" s="2"/>
@@ -3027,9 +3106,9 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
     </row>
-    <row r="26" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -3052,7 +3131,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -3098,9 +3177,9 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
     </row>
-    <row r="27" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A27" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3125,7 +3204,7 @@
         <v>48</v>
       </c>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -3169,7 +3248,7 @@
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
     </row>
-    <row r="28" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -3194,7 +3273,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T28" s="2"/>
@@ -3238,9 +3317,9 @@
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
     </row>
-    <row r="29" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A29" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3263,7 +3342,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T29" s="2"/>
@@ -3309,9 +3388,9 @@
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
     </row>
-    <row r="30" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A30" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3334,7 +3413,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="2" t="s">
         <v>48</v>
       </c>
@@ -3380,9 +3459,9 @@
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
     </row>
-    <row r="31" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="31" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -3405,7 +3484,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T31" s="2"/>
@@ -3449,9 +3528,9 @@
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
     </row>
-    <row r="32" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="32" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A32" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -3474,7 +3553,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T32" s="2"/>
@@ -3520,9 +3599,9 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
     </row>
-    <row r="33" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="33" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A33" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -3545,7 +3624,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="2" t="s">
         <v>45</v>
       </c>
@@ -3591,9 +3670,9 @@
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
     </row>
-    <row r="34" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="34" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A34" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -3614,7 +3693,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3656,9 +3735,9 @@
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
     </row>
-    <row r="35" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="35" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A35" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -3681,7 +3760,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T35" s="2"/>
@@ -3729,9 +3808,9 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
     </row>
-    <row r="36" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="36" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A36" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -3754,7 +3833,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T36" s="2"/>
@@ -3800,9 +3879,9 @@
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
     </row>
-    <row r="37" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="37" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A37" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -3825,7 +3904,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T37" s="2"/>
@@ -3871,9 +3950,9 @@
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
     </row>
-    <row r="38" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="38" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3896,7 +3975,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T38" s="2"/>
@@ -3946,9 +4025,9 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
     </row>
-    <row r="39" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="39" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
@@ -3971,7 +4050,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T39" s="2"/>
@@ -4017,9 +4096,9 @@
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
     </row>
-    <row r="40" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A40" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4040,7 +4119,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T40" s="2"/>
@@ -4086,9 +4165,9 @@
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
     </row>
-    <row r="41" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="41" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A41" s="2" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4111,7 +4190,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T41" s="2"/>
@@ -4155,9 +4234,9 @@
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
     </row>
-    <row r="42" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="42" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A42" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4182,7 +4261,7 @@
         <v>48</v>
       </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
+      <c r="S42" s="5"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -4226,9 +4305,9 @@
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
     </row>
-    <row r="43" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="43" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
@@ -4251,7 +4330,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
+      <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
         <v>48</v>
       </c>
@@ -4297,9 +4376,9 @@
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
     </row>
-    <row r="44" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="44" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A44" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
@@ -4322,7 +4401,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
+      <c r="S44" s="5"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
@@ -4366,9 +4445,9 @@
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
     </row>
-    <row r="45" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="45" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
@@ -4391,7 +4470,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2" t="s">
+      <c r="S45" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T45" s="2"/>
@@ -4439,9 +4518,9 @@
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
     </row>
-    <row r="46" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="46" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4464,7 +4543,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+      <c r="S46" s="5"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2" t="s">
         <v>45</v>
@@ -4510,9 +4589,9 @@
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
     </row>
-    <row r="47" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="47" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4533,7 +4612,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T47" s="2"/>
@@ -4543,7 +4622,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="5" t="s">
+      <c r="AA47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AB47" s="2"/>
@@ -4569,21 +4648,21 @@
         <v>48</v>
       </c>
       <c r="AT47" s="2"/>
-      <c r="AU47" s="8" t="s">
+      <c r="AU47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV47" s="2"/>
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="5"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
     </row>
-    <row r="48" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="48" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -4608,7 +4687,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2" t="s">
+      <c r="S48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T48" s="2"/>
@@ -4652,9 +4731,9 @@
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
     </row>
-    <row r="49" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="49" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
@@ -4677,7 +4756,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T49" s="2"/>
@@ -4723,9 +4802,9 @@
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
     </row>
-    <row r="50" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="50" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A50" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -4748,7 +4827,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="S50" s="5"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -4796,9 +4875,9 @@
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
     </row>
-    <row r="51" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="51" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -4821,7 +4900,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="S51" s="5"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -4865,9 +4944,9 @@
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
     </row>
-    <row r="52" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="52" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A52" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4890,7 +4969,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2" t="s">
+      <c r="S52" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T52" s="2"/>
@@ -4936,9 +5015,9 @@
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
     </row>
-    <row r="53" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="53" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -4961,7 +5040,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2" t="s">
+      <c r="S53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T53" s="2"/>
@@ -5005,7 +5084,7 @@
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
     </row>
-    <row r="54" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="54" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -5032,7 +5111,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2" t="s">
+      <c r="S54" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T54" s="2"/>
@@ -5078,9 +5157,9 @@
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
     </row>
-    <row r="55" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="55" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A55" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -5105,7 +5184,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T55" s="2"/>
@@ -5149,9 +5228,9 @@
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
     </row>
-    <row r="56" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="56" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -5174,7 +5253,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
+      <c r="S56" s="5"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2" t="s">
@@ -5222,9 +5301,9 @@
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
     </row>
-    <row r="57" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="57" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A57" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -5247,7 +5326,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
+      <c r="S57" s="5"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -5291,9 +5370,9 @@
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
     </row>
-    <row r="58" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="58" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A58" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -5316,7 +5395,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T58" s="2"/>
@@ -5360,70 +5439,70 @@
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
     </row>
-    <row r="59" spans="1:55" s="15" customFormat="1" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A59" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="14"/>
-      <c r="AP59" s="14"/>
-      <c r="AQ59" s="14"/>
-      <c r="AR59" s="14"/>
-      <c r="AS59" s="14"/>
-      <c r="AT59" s="14"/>
-      <c r="AU59" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV59" s="14"/>
-      <c r="AW59" s="14"/>
+    <row r="59" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
       <c r="AX59" s="5"/>
-      <c r="AY59" s="14"/>
-      <c r="AZ59" s="14"/>
-      <c r="BA59" s="14"/>
-      <c r="BB59" s="14"/>
-      <c r="BC59" s="14"/>
-    </row>
-    <row r="60" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+    </row>
+    <row r="60" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A60" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5446,7 +5525,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
+      <c r="S60" s="5"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -5456,7 +5535,7 @@
       <c r="Z60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA60" s="5"/>
+      <c r="AA60" s="2"/>
       <c r="AB60" s="2" t="s">
         <v>48</v>
       </c>
@@ -5480,21 +5559,21 @@
       </c>
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
-      <c r="AU60" s="8" t="s">
+      <c r="AU60" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV60" s="2"/>
-      <c r="AW60" s="9"/>
-      <c r="AX60" s="5"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
       <c r="AY60" s="2"/>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
       <c r="BB60" s="2"/>
       <c r="BC60" s="2"/>
     </row>
-    <row r="61" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="61" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -5517,7 +5596,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2" t="s">
+      <c r="S61" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T61" s="2"/>
@@ -5563,9 +5642,9 @@
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
     </row>
-    <row r="62" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -5588,7 +5667,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2" t="s">
+      <c r="S62" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T62" s="2"/>
@@ -5632,9 +5711,9 @@
       <c r="BB62" s="2"/>
       <c r="BC62" s="2"/>
     </row>
-    <row r="63" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="63" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A63" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -5657,7 +5736,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="5"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -5705,7 +5784,7 @@
       <c r="BB63" s="2"/>
       <c r="BC63" s="2"/>
     </row>
-    <row r="64" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="64" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
@@ -5730,7 +5809,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2" t="s">
+      <c r="S64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T64" s="2"/>
@@ -5774,7 +5853,7 @@
       <c r="BB64" s="2"/>
       <c r="BC64" s="2"/>
     </row>
-    <row r="65" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="65" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
@@ -5799,7 +5878,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="2" t="s">
+      <c r="S65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T65" s="2"/>
@@ -5845,9 +5924,9 @@
       <c r="BB65" s="2"/>
       <c r="BC65" s="2"/>
     </row>
-    <row r="66" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="66" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A66" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
@@ -5870,7 +5949,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="2" t="s">
+      <c r="S66" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T66" s="2"/>
@@ -5914,9 +5993,9 @@
       <c r="BB66" s="2"/>
       <c r="BC66" s="2"/>
     </row>
-    <row r="67" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="67" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A67" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
@@ -5939,7 +6018,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2" t="s">
+      <c r="S67" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T67" s="2"/>
@@ -5983,9 +6062,9 @@
       <c r="BB67" s="2"/>
       <c r="BC67" s="2"/>
     </row>
-    <row r="68" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="68" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A68" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -6006,7 +6085,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2" t="s">
+      <c r="S68" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T68" s="2"/>
@@ -6050,9 +6129,9 @@
       <c r="BB68" s="2"/>
       <c r="BC68" s="2"/>
     </row>
-    <row r="69" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="69" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A69" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
@@ -6075,7 +6154,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="2" t="s">
+      <c r="S69" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T69" s="2"/>
@@ -6121,9 +6200,9 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
     </row>
-    <row r="70" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="70" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A70" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -6146,7 +6225,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
+      <c r="S70" s="5"/>
       <c r="T70" s="2" t="s">
         <v>45</v>
       </c>
@@ -6192,9 +6271,9 @@
       <c r="BB70" s="2"/>
       <c r="BC70" s="2"/>
     </row>
-    <row r="71" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="71" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
@@ -6217,7 +6296,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
+      <c r="S71" s="5"/>
       <c r="T71" s="2" t="s">
         <v>45</v>
       </c>
@@ -6261,9 +6340,9 @@
       <c r="BB71" s="2"/>
       <c r="BC71" s="2"/>
     </row>
-    <row r="72" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="72" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A72" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6288,7 +6367,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="2" t="s">
+      <c r="S72" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T72" s="2"/>
@@ -6332,7 +6411,7 @@
       <c r="BB72" s="2"/>
       <c r="BC72" s="2"/>
     </row>
-    <row r="73" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="73" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A73" s="2" t="s">
         <v>46</v>
       </c>
@@ -6357,7 +6436,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="2" t="s">
+      <c r="S73" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T73" s="2"/>
@@ -6401,9 +6480,9 @@
       <c r="BB73" s="2"/>
       <c r="BC73" s="2"/>
     </row>
-    <row r="74" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="74" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
@@ -6426,7 +6505,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="2" t="s">
+      <c r="S74" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T74" s="2"/>
@@ -6474,9 +6553,9 @@
       <c r="BB74" s="2"/>
       <c r="BC74" s="2"/>
     </row>
-    <row r="75" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="75" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A75" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -6499,7 +6578,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="5"/>
       <c r="T75" s="2" t="s">
         <v>45</v>
       </c>
@@ -6543,9 +6622,9 @@
       <c r="BB75" s="2"/>
       <c r="BC75" s="2"/>
     </row>
-    <row r="76" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="76" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A76" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6568,7 +6647,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="5"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -6614,9 +6693,9 @@
       <c r="BB76" s="2"/>
       <c r="BC76" s="2"/>
     </row>
-    <row r="77" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="77" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
@@ -6639,7 +6718,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2" t="s">
+      <c r="S77" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T77" s="2"/>
@@ -6683,9 +6762,9 @@
       <c r="BB77" s="2"/>
       <c r="BC77" s="2"/>
     </row>
-    <row r="78" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="78" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A78" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6708,7 +6787,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="5"/>
       <c r="T78" s="2" t="s">
         <v>45</v>
       </c>
@@ -6752,9 +6831,9 @@
       <c r="BB78" s="2"/>
       <c r="BC78" s="2"/>
     </row>
-    <row r="79" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="79" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6779,7 +6858,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="5"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2" t="s">
         <v>48</v>
@@ -6825,9 +6904,9 @@
       <c r="BB79" s="2"/>
       <c r="BC79" s="2"/>
     </row>
-    <row r="80" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="80" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A80" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
@@ -6850,7 +6929,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="2" t="s">
+      <c r="S80" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T80" s="2"/>
@@ -6896,9 +6975,9 @@
       <c r="BB80" s="2"/>
       <c r="BC80" s="2"/>
     </row>
-    <row r="81" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="81" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
@@ -6921,7 +7000,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="5"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -6963,9 +7042,9 @@
       <c r="BB81" s="2"/>
       <c r="BC81" s="2"/>
     </row>
-    <row r="82" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="82" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
@@ -6988,7 +7067,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="2" t="s">
+      <c r="S82" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T82" s="2"/>
@@ -7036,9 +7115,9 @@
       <c r="BB82" s="2"/>
       <c r="BC82" s="2"/>
     </row>
-    <row r="83" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="83" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
@@ -7061,7 +7140,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-      <c r="S83" s="2" t="s">
+      <c r="S83" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T83" s="2"/>
@@ -7109,9 +7188,9 @@
       <c r="BB83" s="2"/>
       <c r="BC83" s="2"/>
     </row>
-    <row r="84" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="84" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A84" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
@@ -7134,7 +7213,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
-      <c r="S84" s="2" t="s">
+      <c r="S84" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T84" s="2"/>
@@ -7180,7 +7259,7 @@
       <c r="BB84" s="2"/>
       <c r="BC84" s="2"/>
     </row>
-    <row r="85" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="85" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A85" s="2" t="s">
         <v>47</v>
       </c>
@@ -7207,7 +7286,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
-      <c r="S85" s="2" t="s">
+      <c r="S85" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T85" s="2"/>
@@ -7251,9 +7330,9 @@
       <c r="BB85" s="2"/>
       <c r="BC85" s="2"/>
     </row>
-    <row r="86" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="86" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
@@ -7276,7 +7355,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
-      <c r="S86" s="2" t="s">
+      <c r="S86" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T86" s="2"/>
@@ -7320,9 +7399,9 @@
       <c r="BB86" s="2"/>
       <c r="BC86" s="2"/>
     </row>
-    <row r="87" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="87" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
@@ -7345,7 +7424,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
+      <c r="S87" s="5"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2" t="s">
@@ -7391,9 +7470,9 @@
       <c r="BB87" s="2"/>
       <c r="BC87" s="2"/>
     </row>
-    <row r="88" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="88" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A88" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
@@ -7416,7 +7495,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
+      <c r="S88" s="5"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
@@ -7460,9 +7539,9 @@
       <c r="BB88" s="2"/>
       <c r="BC88" s="2"/>
     </row>
-    <row r="89" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="89" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7485,7 +7564,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
-      <c r="S89" s="2" t="s">
+      <c r="S89" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T89" s="2"/>
@@ -7531,9 +7610,9 @@
       <c r="BB89" s="2"/>
       <c r="BC89" s="2"/>
     </row>
-    <row r="90" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="90" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A90" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7556,7 +7635,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
-      <c r="S90" s="2" t="s">
+      <c r="S90" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T90" s="2"/>
@@ -7600,9 +7679,9 @@
       <c r="BB90" s="2"/>
       <c r="BC90" s="2"/>
     </row>
-    <row r="91" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="91" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
@@ -7625,7 +7704,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
-      <c r="S91" s="2" t="s">
+      <c r="S91" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T91" s="2"/>
@@ -7671,7 +7750,7 @@
       <c r="BB91" s="2"/>
       <c r="BC91" s="2"/>
     </row>
-    <row r="92" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="92" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A92" s="2" t="s">
         <v>55</v>
       </c>
@@ -7696,7 +7775,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
-      <c r="S92" s="2" t="s">
+      <c r="S92" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T92" s="2"/>
@@ -7740,9 +7819,9 @@
       <c r="BB92" s="2"/>
       <c r="BC92" s="2"/>
     </row>
-    <row r="93" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="93" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A93" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
@@ -7767,7 +7846,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
-      <c r="S93" s="2" t="s">
+      <c r="S93" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T93" s="2"/>
@@ -7813,9 +7892,9 @@
       <c r="BB93" s="2"/>
       <c r="BC93" s="2"/>
     </row>
-    <row r="94" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="94" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A94" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
@@ -7838,7 +7917,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
-      <c r="S94" s="2" t="s">
+      <c r="S94" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T94" s="2"/>
@@ -7888,9 +7967,9 @@
       <c r="BB94" s="2"/>
       <c r="BC94" s="2"/>
     </row>
-    <row r="95" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="95" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
@@ -7913,7 +7992,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
-      <c r="S95" s="2" t="s">
+      <c r="S95" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T95" s="2"/>
@@ -7963,9 +8042,9 @@
       <c r="BB95" s="2"/>
       <c r="BC95" s="2"/>
     </row>
-    <row r="96" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="96" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A96" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -7988,7 +8067,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
-      <c r="S96" s="2" t="s">
+      <c r="S96" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T96" s="2"/>
@@ -8038,9 +8117,9 @@
       <c r="BB96" s="2"/>
       <c r="BC96" s="2"/>
     </row>
-    <row r="97" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="97" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A97" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -8063,7 +8142,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
-      <c r="S97" s="2" t="s">
+      <c r="S97" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T97" s="2"/>
@@ -8107,9 +8186,9 @@
       <c r="BB97" s="2"/>
       <c r="BC97" s="2"/>
     </row>
-    <row r="98" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="98" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A98" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -8132,7 +8211,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
-      <c r="S98" s="2" t="s">
+      <c r="S98" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T98" s="2"/>
@@ -8178,9 +8257,9 @@
       <c r="BB98" s="2"/>
       <c r="BC98" s="2"/>
     </row>
-    <row r="99" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="99" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A99" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -8203,7 +8282,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
+      <c r="S99" s="5"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
@@ -8249,9 +8328,9 @@
       <c r="BB99" s="2"/>
       <c r="BC99" s="2"/>
     </row>
-    <row r="100" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="100" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
@@ -8274,7 +8353,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
-      <c r="S100" s="2" t="s">
+      <c r="S100" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T100" s="2"/>
@@ -8318,9 +8397,9 @@
       <c r="BB100" s="2"/>
       <c r="BC100" s="2"/>
     </row>
-    <row r="101" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="101" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A101" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
@@ -8343,7 +8422,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
-      <c r="S101" s="2" t="s">
+      <c r="S101" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T101" s="2"/>
@@ -8389,9 +8468,9 @@
       <c r="BB101" s="2"/>
       <c r="BC101" s="2"/>
     </row>
-    <row r="102" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="102" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A102" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -8414,7 +8493,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
-      <c r="S102" s="2" t="s">
+      <c r="S102" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T102" s="2"/>
@@ -8460,7 +8539,7 @@
       <c r="BB102" s="2"/>
       <c r="BC102" s="2"/>
     </row>
-    <row r="103" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="103" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A103" s="2" t="s">
         <v>56</v>
       </c>
@@ -8485,7 +8564,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
-      <c r="S103" s="2" t="s">
+      <c r="S103" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T103" s="2"/>
@@ -8527,9 +8606,9 @@
       <c r="BB103" s="2"/>
       <c r="BC103" s="2"/>
     </row>
-    <row r="104" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="104" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -8554,7 +8633,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
-      <c r="S104" s="2" t="s">
+      <c r="S104" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T104" s="2"/>
@@ -8598,9 +8677,9 @@
       <c r="BB104" s="2"/>
       <c r="BC104" s="2"/>
     </row>
-    <row r="105" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="105" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
@@ -8623,7 +8702,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
-      <c r="S105" s="2" t="s">
+      <c r="S105" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T105" s="2"/>
@@ -8667,9 +8746,9 @@
       <c r="BB105" s="2"/>
       <c r="BC105" s="2"/>
     </row>
-    <row r="106" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="106" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A106" s="2" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
@@ -8692,7 +8771,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
-      <c r="S106" s="2" t="s">
+      <c r="S106" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T106" s="2"/>
@@ -8742,9 +8821,9 @@
       <c r="BB106" s="2"/>
       <c r="BC106" s="2"/>
     </row>
-    <row r="107" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="107" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
@@ -8767,7 +8846,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
-      <c r="S107" s="2" t="s">
+      <c r="S107" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T107" s="2"/>
@@ -8811,9 +8890,9 @@
       <c r="BB107" s="2"/>
       <c r="BC107" s="2"/>
     </row>
-    <row r="108" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="108" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
@@ -8836,7 +8915,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
-      <c r="S108" s="2" t="s">
+      <c r="S108" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T108" s="2"/>
@@ -8880,9 +8959,9 @@
       <c r="BB108" s="2"/>
       <c r="BC108" s="2"/>
     </row>
-    <row r="109" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="109" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A109" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
@@ -8905,7 +8984,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
-      <c r="S109" s="2" t="s">
+      <c r="S109" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T109" s="2"/>
@@ -8949,9 +9028,9 @@
       <c r="BB109" s="2"/>
       <c r="BC109" s="2"/>
     </row>
-    <row r="110" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="110" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A110" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8974,7 +9053,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
-      <c r="S110" s="2" t="s">
+      <c r="S110" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T110" s="2"/>
@@ -9020,82 +9099,82 @@
       <c r="BB110" s="2"/>
       <c r="BC110" s="2"/>
     </row>
-    <row r="111" spans="1:55" s="15" customFormat="1" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A111" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="T111" s="14"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
-      <c r="AA111" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="14"/>
-      <c r="AF111" s="14"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="14"/>
-      <c r="AI111" s="14"/>
-      <c r="AJ111" s="14"/>
-      <c r="AK111" s="14"/>
-      <c r="AL111" s="14"/>
-      <c r="AM111" s="14"/>
-      <c r="AN111" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO111" s="14"/>
-      <c r="AP111" s="14"/>
-      <c r="AQ111" s="14"/>
-      <c r="AR111" s="14"/>
-      <c r="AS111" s="14"/>
-      <c r="AT111" s="14"/>
-      <c r="AU111" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV111" s="14"/>
-      <c r="AW111" s="14"/>
+    <row r="111" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="2"/>
+      <c r="AQ111" s="2"/>
+      <c r="AR111" s="2"/>
+      <c r="AS111" s="2"/>
+      <c r="AT111" s="2"/>
+      <c r="AU111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV111" s="2"/>
+      <c r="AW111" s="2"/>
       <c r="AX111" s="5"/>
-      <c r="AY111" s="14"/>
-      <c r="AZ111" s="14"/>
-      <c r="BA111" s="14"/>
-      <c r="BB111" s="14"/>
-      <c r="BC111" s="14"/>
-    </row>
-    <row r="112" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="2"/>
+      <c r="BA111" s="2"/>
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
+    </row>
+    <row r="112" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A112" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
@@ -9118,7 +9197,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
-      <c r="S112" s="2" t="s">
+      <c r="S112" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T112" s="2"/>
@@ -9162,9 +9241,9 @@
       <c r="BB112" s="2"/>
       <c r="BC112" s="2"/>
     </row>
-    <row r="113" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A113" s="14" t="s">
-        <v>81</v>
+    <row r="113" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A113" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9187,7 +9266,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
-      <c r="S113" s="2" t="s">
+      <c r="S113" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T113" s="2"/>
@@ -9233,9 +9312,9 @@
       <c r="BB113" s="2"/>
       <c r="BC113" s="2"/>
     </row>
-    <row r="114" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="114" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A114" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9256,7 +9335,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
-      <c r="S114" s="2" t="s">
+      <c r="S114" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T114" s="2"/>
@@ -9266,7 +9345,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-      <c r="AA114" s="5"/>
+      <c r="AA114" s="2"/>
       <c r="AB114" s="2" t="s">
         <v>48</v>
       </c>
@@ -9290,21 +9369,21 @@
         <v>45</v>
       </c>
       <c r="AT114" s="2"/>
-      <c r="AU114" s="8"/>
+      <c r="AU114" s="2"/>
       <c r="AV114" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW114" s="9"/>
-      <c r="AX114" s="5"/>
+      <c r="AW114" s="2"/>
+      <c r="AX114" s="2"/>
       <c r="AY114" s="2"/>
       <c r="AZ114" s="2"/>
       <c r="BA114" s="2"/>
       <c r="BB114" s="2"/>
       <c r="BC114" s="2"/>
     </row>
-    <row r="115" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="115" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A115" s="2" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
@@ -9329,7 +9408,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
+      <c r="S115" s="5"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
@@ -9375,139 +9454,98 @@
       <c r="BB115" s="2"/>
       <c r="BC115" s="2"/>
     </row>
-    <row r="116" spans="1:55" s="15" customFormat="1" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A116" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="14"/>
-      <c r="U116" s="14"/>
-      <c r="V116" s="14"/>
-      <c r="W116" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="X116" s="14"/>
-      <c r="Y116" s="14"/>
-      <c r="Z116" s="14"/>
-      <c r="AA116" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB116" s="14"/>
-      <c r="AC116" s="14"/>
-      <c r="AD116" s="14"/>
-      <c r="AE116" s="14"/>
-      <c r="AF116" s="14"/>
-      <c r="AG116" s="14"/>
-      <c r="AH116" s="14"/>
-      <c r="AI116" s="14"/>
-      <c r="AJ116" s="14"/>
-      <c r="AK116" s="14"/>
-      <c r="AL116" s="14"/>
-      <c r="AM116" s="14"/>
-      <c r="AN116" s="14"/>
-      <c r="AO116" s="14"/>
-      <c r="AP116" s="14"/>
-      <c r="AQ116" s="14"/>
-      <c r="AR116" s="14"/>
-      <c r="AS116" s="14"/>
-      <c r="AT116" s="14"/>
-      <c r="AU116" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV116" s="14"/>
-      <c r="AW116" s="14"/>
+    <row r="116" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A116" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
+      <c r="AK116" s="2"/>
+      <c r="AL116" s="2"/>
+      <c r="AM116" s="2"/>
+      <c r="AN116" s="2"/>
+      <c r="AO116" s="2"/>
+      <c r="AP116" s="2"/>
+      <c r="AQ116" s="2"/>
+      <c r="AR116" s="2"/>
+      <c r="AS116" s="2"/>
+      <c r="AT116" s="2"/>
+      <c r="AU116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV116" s="2"/>
+      <c r="AW116" s="2"/>
       <c r="AX116" s="5"/>
-      <c r="AY116" s="14"/>
-      <c r="AZ116" s="14"/>
-      <c r="BA116" s="14"/>
-      <c r="BB116" s="14"/>
-      <c r="BC116" s="14"/>
-    </row>
-    <row r="117" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="AY116" s="2"/>
+      <c r="AZ116" s="2"/>
+      <c r="BA116" s="2"/>
+      <c r="BB116" s="2"/>
+      <c r="BC116" s="2"/>
+    </row>
+    <row r="117" spans="1:55" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A117" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="2"/>
-      <c r="AC117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="2"/>
-      <c r="AF117" s="2"/>
-      <c r="AG117" s="2"/>
-      <c r="AH117" s="2"/>
-      <c r="AI117" s="2"/>
-      <c r="AJ117" s="2"/>
-      <c r="AK117" s="2"/>
-      <c r="AL117" s="2"/>
-      <c r="AM117" s="2"/>
-      <c r="AN117" s="2"/>
-      <c r="AO117" s="2"/>
-      <c r="AP117" s="2"/>
-      <c r="AQ117" s="2"/>
-      <c r="AR117" s="2"/>
-      <c r="AS117" s="2"/>
-      <c r="AT117" s="2"/>
-      <c r="AU117" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV117" s="2"/>
-      <c r="AW117" s="9"/>
-      <c r="AX117" s="5"/>
-      <c r="AY117" s="2"/>
-      <c r="AZ117" s="2"/>
-      <c r="BA117" s="2"/>
-      <c r="BB117" s="2"/>
-      <c r="BC117" s="2"/>
-    </row>
-    <row r="118" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+        <v>242</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU117" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A118" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9532,7 +9570,7 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
+      <c r="S118" s="5"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2" t="s">
@@ -9576,9 +9614,9 @@
       <c r="BB118" s="2"/>
       <c r="BC118" s="2"/>
     </row>
-    <row r="119" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="119" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A119" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
@@ -9601,7 +9639,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
+      <c r="S119" s="5"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2" t="s">
         <v>48</v>
@@ -9651,9 +9689,9 @@
       <c r="BB119" s="2"/>
       <c r="BC119" s="2"/>
     </row>
-    <row r="120" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="120" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
@@ -9678,7 +9716,7 @@
         <v>48</v>
       </c>
       <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
+      <c r="S120" s="5"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2" t="s">
@@ -9724,9 +9762,9 @@
       <c r="BB120" s="2"/>
       <c r="BC120" s="2"/>
     </row>
-    <row r="121" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="121" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A121" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
@@ -9749,7 +9787,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
-      <c r="S121" s="2" t="s">
+      <c r="S121" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T121" s="2"/>
@@ -9795,9 +9833,9 @@
       <c r="BB121" s="2"/>
       <c r="BC121" s="2"/>
     </row>
-    <row r="122" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="122" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A122" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
@@ -9820,7 +9858,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
-      <c r="S122" s="2" t="s">
+      <c r="S122" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T122" s="2"/>
@@ -9866,9 +9904,9 @@
       <c r="BB122" s="2"/>
       <c r="BC122" s="2"/>
     </row>
-    <row r="123" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="123" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
@@ -9891,7 +9929,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
-      <c r="S123" s="2" t="s">
+      <c r="S123" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T123" s="2"/>
@@ -9933,9 +9971,9 @@
       <c r="BB123" s="2"/>
       <c r="BC123" s="2"/>
     </row>
-    <row r="124" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="124" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A124" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
@@ -9958,7 +9996,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
-      <c r="S124" s="2" t="s">
+      <c r="S124" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T124" s="2"/>
@@ -10002,9 +10040,9 @@
       <c r="BB124" s="2"/>
       <c r="BC124" s="2"/>
     </row>
-    <row r="125" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="125" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A125" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
@@ -10027,7 +10065,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
-      <c r="S125" s="2" t="s">
+      <c r="S125" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T125" s="2"/>
@@ -10073,9 +10111,9 @@
       <c r="BB125" s="2"/>
       <c r="BC125" s="2"/>
     </row>
-    <row r="126" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="126" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A126" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
@@ -10098,7 +10136,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
-      <c r="S126" s="2" t="s">
+      <c r="S126" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T126" s="2"/>
@@ -10144,9 +10182,9 @@
       <c r="BB126" s="2"/>
       <c r="BC126" s="2"/>
     </row>
-    <row r="127" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="127" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A127" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
@@ -10169,7 +10207,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
-      <c r="S127" s="2" t="s">
+      <c r="S127" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T127" s="2"/>
@@ -10215,9 +10253,9 @@
       <c r="BB127" s="2"/>
       <c r="BC127" s="2"/>
     </row>
-    <row r="128" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="128" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A128" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
@@ -10240,7 +10278,7 @@
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
-      <c r="S128" s="2" t="s">
+      <c r="S128" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T128" s="2"/>
@@ -10286,9 +10324,9 @@
       <c r="BB128" s="2"/>
       <c r="BC128" s="2"/>
     </row>
-    <row r="129" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="129" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A129" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
@@ -10311,7 +10349,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
-      <c r="S129" s="2" t="s">
+      <c r="S129" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T129" s="2"/>
@@ -10357,9 +10395,9 @@
       <c r="BB129" s="2"/>
       <c r="BC129" s="2"/>
     </row>
-    <row r="130" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="130" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A130" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
@@ -10384,7 +10422,7 @@
         <v>45</v>
       </c>
       <c r="R130" s="2"/>
-      <c r="S130" s="2" t="s">
+      <c r="S130" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T130" s="2"/>
@@ -10430,9 +10468,9 @@
       <c r="BB130" s="2"/>
       <c r="BC130" s="2"/>
     </row>
-    <row r="131" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="131" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
@@ -10457,7 +10495,7 @@
         <v>48</v>
       </c>
       <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
+      <c r="S131" s="5"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
@@ -10501,9 +10539,9 @@
       <c r="BB131" s="2"/>
       <c r="BC131" s="2"/>
     </row>
-    <row r="132" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="132" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A132" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
@@ -10526,7 +10564,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
-      <c r="S132" s="2" t="s">
+      <c r="S132" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T132" s="2"/>
@@ -10572,9 +10610,9 @@
       <c r="BB132" s="2"/>
       <c r="BC132" s="2"/>
     </row>
-    <row r="133" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="133" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A133" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10599,7 +10637,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
+      <c r="S133" s="5"/>
       <c r="T133" s="2" t="s">
         <v>48</v>
       </c>
@@ -10645,9 +10683,9 @@
       <c r="BB133" s="2"/>
       <c r="BC133" s="2"/>
     </row>
-    <row r="134" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="134" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A134" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
@@ -10670,7 +10708,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
-      <c r="S134" s="2" t="s">
+      <c r="S134" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T134" s="2"/>
@@ -10714,9 +10752,9 @@
       <c r="BB134" s="2"/>
       <c r="BC134" s="2"/>
     </row>
-    <row r="135" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="135" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A135" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10739,7 +10777,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
+      <c r="S135" s="5"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
@@ -10783,9 +10821,9 @@
       <c r="BB135" s="2"/>
       <c r="BC135" s="2"/>
     </row>
-    <row r="136" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="136" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A136" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10810,7 +10848,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
+      <c r="S136" s="5"/>
       <c r="T136" s="2" t="s">
         <v>45</v>
       </c>
@@ -10858,9 +10896,9 @@
       <c r="BB136" s="2"/>
       <c r="BC136" s="2"/>
     </row>
-    <row r="137" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="137" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A137" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10885,7 +10923,7 @@
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
-      <c r="S137" s="2"/>
+      <c r="S137" s="5"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2" t="s">
@@ -10933,9 +10971,9 @@
       <c r="BB137" s="2"/>
       <c r="BC137" s="2"/>
     </row>
-    <row r="138" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="138" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A138" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
@@ -10958,7 +10996,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
+      <c r="S138" s="5"/>
       <c r="T138" s="2" t="s">
         <v>45</v>
       </c>
@@ -11004,9 +11042,9 @@
       <c r="BB138" s="2"/>
       <c r="BC138" s="2"/>
     </row>
-    <row r="139" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="139" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A139" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
@@ -11031,7 +11069,7 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
+      <c r="S139" s="5"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
@@ -11081,9 +11119,9 @@
       <c r="BB139" s="2"/>
       <c r="BC139" s="2"/>
     </row>
-    <row r="140" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="140" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A140" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11106,7 +11144,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
-      <c r="S140" s="2" t="s">
+      <c r="S140" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T140" s="2"/>
@@ -11116,7 +11154,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="5"/>
+      <c r="AA140" s="2"/>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
@@ -11138,21 +11176,21 @@
       <c r="AR140" s="2"/>
       <c r="AS140" s="2"/>
       <c r="AT140" s="2"/>
-      <c r="AU140" s="8" t="s">
+      <c r="AU140" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV140" s="2"/>
-      <c r="AW140" s="9"/>
-      <c r="AX140" s="5"/>
+      <c r="AW140" s="2"/>
+      <c r="AX140" s="2"/>
       <c r="AY140" s="2"/>
       <c r="AZ140" s="2"/>
       <c r="BA140" s="2"/>
       <c r="BB140" s="2"/>
       <c r="BC140" s="2"/>
     </row>
-    <row r="141" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="141" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
@@ -11175,7 +11213,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
-      <c r="S141" s="2" t="s">
+      <c r="S141" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T141" s="2"/>
@@ -11219,9 +11257,9 @@
       <c r="BB141" s="2"/>
       <c r="BC141" s="2"/>
     </row>
-    <row r="142" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="142" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A142" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11246,7 +11284,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
-      <c r="S142" s="2" t="s">
+      <c r="S142" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T142" s="2"/>
@@ -11294,9 +11332,9 @@
       <c r="BB142" s="2"/>
       <c r="BC142" s="2"/>
     </row>
-    <row r="143" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="143" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A143" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
@@ -11319,7 +11357,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
-      <c r="S143" s="2" t="s">
+      <c r="S143" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T143" s="2"/>
@@ -11363,9 +11401,9 @@
       <c r="BB143" s="2"/>
       <c r="BC143" s="2"/>
     </row>
-    <row r="144" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="144" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11384,7 +11422,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
+      <c r="S144" s="5"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
@@ -11426,9 +11464,9 @@
       <c r="BB144" s="2"/>
       <c r="BC144" s="2"/>
     </row>
-    <row r="145" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="145" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A145" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
@@ -11451,7 +11489,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
+      <c r="S145" s="5"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
@@ -11499,70 +11537,70 @@
       <c r="BB145" s="2"/>
       <c r="BC145" s="2"/>
     </row>
-    <row r="146" spans="1:55" s="15" customFormat="1" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A146" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="14"/>
-      <c r="K146" s="14"/>
-      <c r="L146" s="14"/>
-      <c r="M146" s="14"/>
-      <c r="N146" s="14"/>
-      <c r="O146" s="14"/>
-      <c r="P146" s="14"/>
-      <c r="Q146" s="14"/>
-      <c r="R146" s="14"/>
-      <c r="S146" s="14"/>
-      <c r="T146" s="14"/>
-      <c r="U146" s="14"/>
-      <c r="V146" s="14"/>
-      <c r="W146" s="14"/>
-      <c r="X146" s="14"/>
-      <c r="Y146" s="14"/>
-      <c r="Z146" s="14"/>
-      <c r="AA146" s="14"/>
-      <c r="AB146" s="14"/>
-      <c r="AC146" s="14"/>
-      <c r="AD146" s="14"/>
-      <c r="AE146" s="14"/>
-      <c r="AF146" s="14"/>
-      <c r="AG146" s="14"/>
-      <c r="AH146" s="14"/>
-      <c r="AI146" s="14"/>
-      <c r="AJ146" s="14"/>
-      <c r="AK146" s="14"/>
-      <c r="AL146" s="14"/>
-      <c r="AM146" s="14"/>
-      <c r="AN146" s="14"/>
-      <c r="AO146" s="14"/>
-      <c r="AP146" s="14"/>
-      <c r="AQ146" s="14"/>
-      <c r="AR146" s="14"/>
-      <c r="AS146" s="14"/>
-      <c r="AT146" s="14"/>
-      <c r="AU146" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV146" s="14"/>
-      <c r="AW146" s="14"/>
+    <row r="146" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A146" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2"/>
+      <c r="AJ146" s="2"/>
+      <c r="AK146" s="2"/>
+      <c r="AL146" s="2"/>
+      <c r="AM146" s="2"/>
+      <c r="AN146" s="2"/>
+      <c r="AO146" s="2"/>
+      <c r="AP146" s="2"/>
+      <c r="AQ146" s="2"/>
+      <c r="AR146" s="2"/>
+      <c r="AS146" s="2"/>
+      <c r="AT146" s="2"/>
+      <c r="AU146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV146" s="2"/>
+      <c r="AW146" s="2"/>
       <c r="AX146" s="5"/>
-      <c r="AY146" s="14"/>
-      <c r="AZ146" s="14"/>
-      <c r="BA146" s="14"/>
-      <c r="BB146" s="14"/>
-      <c r="BC146" s="14"/>
-    </row>
-    <row r="147" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+      <c r="AY146" s="2"/>
+      <c r="AZ146" s="2"/>
+      <c r="BA146" s="2"/>
+      <c r="BB146" s="2"/>
+      <c r="BC146" s="2"/>
+    </row>
+    <row r="147" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A147" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
@@ -11585,7 +11623,7 @@
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
-      <c r="S147" s="2" t="s">
+      <c r="S147" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T147" s="2"/>
@@ -11629,9 +11667,9 @@
       <c r="BB147" s="2"/>
       <c r="BC147" s="2"/>
     </row>
-    <row r="148" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="148" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A148" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -11654,7 +11692,7 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
-      <c r="S148" s="2" t="s">
+      <c r="S148" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T148" s="2"/>
@@ -11698,9 +11736,9 @@
       <c r="BB148" s="2"/>
       <c r="BC148" s="2"/>
     </row>
-    <row r="149" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="149" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
@@ -11723,7 +11761,7 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
+      <c r="S149" s="5"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -11771,9 +11809,9 @@
       <c r="BB149" s="2"/>
       <c r="BC149" s="2"/>
     </row>
-    <row r="150" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="150" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A150" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11796,7 +11834,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
-      <c r="S150" s="2" t="s">
+      <c r="S150" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T150" s="2"/>
@@ -11840,9 +11878,9 @@
       <c r="BB150" s="2"/>
       <c r="BC150" s="2"/>
     </row>
-    <row r="151" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="151" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A151" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11865,7 +11903,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
-      <c r="S151" s="2" t="s">
+      <c r="S151" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T151" s="2"/>
@@ -11911,9 +11949,9 @@
       <c r="BB151" s="2"/>
       <c r="BC151" s="2"/>
     </row>
-    <row r="152" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="152" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A152" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
@@ -11936,7 +11974,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
+      <c r="S152" s="5"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
@@ -11980,9 +12018,9 @@
       <c r="BB152" s="2"/>
       <c r="BC152" s="2"/>
     </row>
-    <row r="153" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="153" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
@@ -12007,7 +12045,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
+      <c r="S153" s="5"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
@@ -12049,9 +12087,9 @@
       <c r="BB153" s="2"/>
       <c r="BC153" s="2"/>
     </row>
-    <row r="154" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="154" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A154" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
@@ -12074,7 +12112,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
+      <c r="S154" s="5"/>
       <c r="T154" s="2" t="s">
         <v>48</v>
       </c>
@@ -12122,9 +12160,9 @@
       <c r="BB154" s="2"/>
       <c r="BC154" s="2"/>
     </row>
-    <row r="155" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="155" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
@@ -12147,7 +12185,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
-      <c r="S155" s="2" t="s">
+      <c r="S155" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T155" s="2"/>
@@ -12191,9 +12229,9 @@
       <c r="BB155" s="2"/>
       <c r="BC155" s="2"/>
     </row>
-    <row r="156" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="156" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A156" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
@@ -12216,7 +12254,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="2" t="s">
+      <c r="S156" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T156" s="2"/>
@@ -12260,9 +12298,9 @@
       <c r="BB156" s="2"/>
       <c r="BC156" s="2"/>
     </row>
-    <row r="157" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="157" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A157" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
@@ -12285,7 +12323,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
+      <c r="S157" s="5"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
@@ -12331,9 +12369,9 @@
       <c r="BB157" s="2"/>
       <c r="BC157" s="2"/>
     </row>
-    <row r="158" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="158" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
@@ -12356,7 +12394,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
+      <c r="S158" s="5"/>
       <c r="T158" s="2" t="s">
         <v>48</v>
       </c>
@@ -12406,9 +12444,9 @@
       <c r="BB158" s="2"/>
       <c r="BC158" s="2"/>
     </row>
-    <row r="159" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="159" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
@@ -12431,7 +12469,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
-      <c r="S159" s="2" t="s">
+      <c r="S159" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T159" s="2"/>
@@ -12479,9 +12517,9 @@
       <c r="BB159" s="2"/>
       <c r="BC159" s="2"/>
     </row>
-    <row r="160" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="160" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2" t="s">
@@ -12506,7 +12544,7 @@
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
+      <c r="S160" s="5"/>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
@@ -12546,9 +12584,9 @@
       <c r="BB160" s="2"/>
       <c r="BC160" s="2"/>
     </row>
-    <row r="161" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="161" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A161" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
@@ -12571,7 +12609,7 @@
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
-      <c r="S161" s="2" t="s">
+      <c r="S161" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T161" s="2"/>
@@ -12615,9 +12653,9 @@
       <c r="BB161" s="2"/>
       <c r="BC161" s="2"/>
     </row>
-    <row r="162" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="162" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A162" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
@@ -12640,7 +12678,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
-      <c r="S162" s="2" t="s">
+      <c r="S162" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T162" s="2"/>
@@ -12684,9 +12722,9 @@
       <c r="BB162" s="2"/>
       <c r="BC162" s="2"/>
     </row>
-    <row r="163" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="163" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
@@ -12709,7 +12747,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
-      <c r="S163" s="2" t="s">
+      <c r="S163" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T163" s="2"/>
@@ -12757,9 +12795,9 @@
       <c r="BB163" s="2"/>
       <c r="BC163" s="2"/>
     </row>
-    <row r="164" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="164" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A164" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2" t="s">
@@ -12782,7 +12820,7 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
-      <c r="S164" s="2" t="s">
+      <c r="S164" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T164" s="2"/>
@@ -12830,7 +12868,7 @@
       <c r="BB164" s="2"/>
       <c r="BC164" s="2"/>
     </row>
-    <row r="165" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="165" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A165" s="2" t="s">
         <v>49</v>
       </c>
@@ -12855,7 +12893,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
-      <c r="S165" s="2" t="s">
+      <c r="S165" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T165" s="2"/>
@@ -12899,9 +12937,9 @@
       <c r="BB165" s="2"/>
       <c r="BC165" s="2"/>
     </row>
-    <row r="166" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="166" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A166" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
@@ -12924,7 +12962,7 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
-      <c r="S166" s="2" t="s">
+      <c r="S166" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T166" s="2"/>
@@ -12968,9 +13006,9 @@
       <c r="BB166" s="2"/>
       <c r="BC166" s="2"/>
     </row>
-    <row r="167" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="167" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A167" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12993,7 +13031,7 @@
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
-      <c r="S167" s="2" t="s">
+      <c r="S167" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T167" s="2"/>
@@ -13037,9 +13075,9 @@
       <c r="BB167" s="2"/>
       <c r="BC167" s="2"/>
     </row>
-    <row r="168" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="168" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A168" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
@@ -13062,7 +13100,7 @@
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
-      <c r="S168" s="2" t="s">
+      <c r="S168" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T168" s="2"/>
@@ -13106,7 +13144,7 @@
       <c r="BB168" s="2"/>
       <c r="BC168" s="2"/>
     </row>
-    <row r="169" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="169" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A169" s="2" t="s">
         <v>54</v>
       </c>
@@ -13131,7 +13169,7 @@
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
-      <c r="S169" s="2" t="s">
+      <c r="S169" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T169" s="2"/>
@@ -13177,9 +13215,9 @@
       <c r="BB169" s="2"/>
       <c r="BC169" s="2"/>
     </row>
-    <row r="170" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="170" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A170" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
@@ -13202,7 +13240,7 @@
         <v>48</v>
       </c>
       <c r="R170" s="2"/>
-      <c r="S170" s="2" t="s">
+      <c r="S170" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T170" s="2"/>
@@ -13248,9 +13286,9 @@
       <c r="BB170" s="2"/>
       <c r="BC170" s="2"/>
     </row>
-    <row r="171" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="171" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A171" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
@@ -13273,8 +13311,8 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
-      <c r="S171" s="2" t="s">
-        <v>211</v>
+      <c r="S171" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
@@ -13317,9 +13355,9 @@
       <c r="BB171" s="2"/>
       <c r="BC171" s="2"/>
     </row>
-    <row r="172" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="172" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A172" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -13342,7 +13380,7 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
+      <c r="S172" s="5"/>
       <c r="T172" s="2" t="s">
         <v>48</v>
       </c>
@@ -13386,9 +13424,9 @@
       <c r="BB172" s="2"/>
       <c r="BC172" s="2"/>
     </row>
-    <row r="173" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="173" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A173" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
@@ -13411,7 +13449,7 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
+      <c r="S173" s="5"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
@@ -13459,9 +13497,9 @@
       <c r="BB173" s="2"/>
       <c r="BC173" s="2"/>
     </row>
-    <row r="174" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="174" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A174" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
@@ -13484,7 +13522,7 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
-      <c r="S174" s="2" t="s">
+      <c r="S174" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T174" s="2" t="s">
@@ -13530,9 +13568,9 @@
       <c r="BB174" s="2"/>
       <c r="BC174" s="2"/>
     </row>
-    <row r="175" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="175" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
@@ -13555,7 +13593,7 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
-      <c r="S175" s="2" t="s">
+      <c r="S175" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T175" s="2"/>
@@ -13599,9 +13637,9 @@
       <c r="BB175" s="2"/>
       <c r="BC175" s="2"/>
     </row>
-    <row r="176" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="176" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
@@ -13626,7 +13664,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
-      <c r="S176" s="2" t="s">
+      <c r="S176" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T176" s="2"/>
@@ -13672,9 +13710,9 @@
       <c r="BB176" s="2"/>
       <c r="BC176" s="2"/>
     </row>
-    <row r="177" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="177" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A177" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
@@ -13697,7 +13735,7 @@
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
+      <c r="S177" s="5"/>
       <c r="T177" s="2"/>
       <c r="U177" s="2" t="s">
         <v>48</v>
@@ -13739,9 +13777,9 @@
       <c r="BB177" s="2"/>
       <c r="BC177" s="2"/>
     </row>
-    <row r="178" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="178" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A178" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -13764,7 +13802,7 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
+      <c r="S178" s="5"/>
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
       <c r="V178" s="2" t="s">
@@ -13808,9 +13846,9 @@
       <c r="BB178" s="2"/>
       <c r="BC178" s="2"/>
     </row>
-    <row r="179" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="179" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A179" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -13833,7 +13871,7 @@
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
+      <c r="S179" s="5"/>
       <c r="T179" s="2" t="s">
         <v>48</v>
       </c>
@@ -13877,9 +13915,9 @@
       <c r="BB179" s="2"/>
       <c r="BC179" s="2"/>
     </row>
-    <row r="180" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="180" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A180" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -13904,7 +13942,7 @@
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
+      <c r="S180" s="5"/>
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
@@ -13950,9 +13988,9 @@
       <c r="BB180" s="2"/>
       <c r="BC180" s="2"/>
     </row>
-    <row r="181" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="181" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
@@ -13975,7 +14013,7 @@
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
+      <c r="S181" s="5"/>
       <c r="T181" s="2" t="s">
         <v>48</v>
       </c>
@@ -14019,9 +14057,9 @@
       <c r="BB181" s="2"/>
       <c r="BC181" s="2"/>
     </row>
-    <row r="182" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="182" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
@@ -14044,14 +14082,14 @@
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
+      <c r="S182" s="5"/>
       <c r="T182" s="2" t="s">
         <v>45</v>
       </c>
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
       <c r="W182" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
@@ -14090,9 +14128,9 @@
       <c r="BB182" s="2"/>
       <c r="BC182" s="2"/>
     </row>
-    <row r="183" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="183" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A183" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
@@ -14115,7 +14153,7 @@
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
-      <c r="S183" s="2" t="s">
+      <c r="S183" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T183" s="2"/>
@@ -14163,9 +14201,9 @@
       <c r="BB183" s="2"/>
       <c r="BC183" s="2"/>
     </row>
-    <row r="184" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="184" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
@@ -14188,7 +14226,7 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
+      <c r="S184" s="5"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="V184" s="2" t="s">
@@ -14234,9 +14272,9 @@
       <c r="BB184" s="2"/>
       <c r="BC184" s="2"/>
     </row>
-    <row r="185" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="185" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A185" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
@@ -14259,7 +14297,7 @@
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
-      <c r="S185" s="2" t="s">
+      <c r="S185" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T185" s="2"/>
@@ -14305,9 +14343,9 @@
       <c r="BB185" s="2"/>
       <c r="BC185" s="2"/>
     </row>
-    <row r="186" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="186" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A186" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
@@ -14330,7 +14368,7 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
-      <c r="S186" s="2" t="s">
+      <c r="S186" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T186" s="2"/>
@@ -14376,9 +14414,9 @@
       <c r="BB186" s="2"/>
       <c r="BC186" s="2"/>
     </row>
-    <row r="187" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="187" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A187" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
@@ -14401,7 +14439,7 @@
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
-      <c r="S187" s="2" t="s">
+      <c r="S187" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T187" s="2"/>
@@ -14445,9 +14483,9 @@
       <c r="BB187" s="2"/>
       <c r="BC187" s="2"/>
     </row>
-    <row r="188" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="188" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A188" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -14470,7 +14508,7 @@
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
+      <c r="S188" s="5"/>
       <c r="T188" s="2" t="s">
         <v>48</v>
       </c>
@@ -14514,9 +14552,9 @@
       <c r="BB188" s="2"/>
       <c r="BC188" s="2"/>
     </row>
-    <row r="189" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="189" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
@@ -14539,7 +14577,7 @@
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
-      <c r="S189" s="2" t="s">
+      <c r="S189" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T189" s="2"/>
@@ -14583,7 +14621,7 @@
       <c r="BB189" s="2"/>
       <c r="BC189" s="2"/>
     </row>
-    <row r="190" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="190" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A190" s="2" t="s">
         <v>50</v>
       </c>
@@ -14612,7 +14650,7 @@
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
-      <c r="S190" s="2" t="s">
+      <c r="S190" s="5" t="s">
         <v>43</v>
       </c>
       <c r="T190" s="2"/>
@@ -14622,7 +14660,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-      <c r="AA190" s="5"/>
+      <c r="AA190" s="2"/>
       <c r="AB190" s="2"/>
       <c r="AC190" s="2" t="s">
         <v>45</v>
@@ -14644,21 +14682,21 @@
       <c r="AR190" s="2"/>
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
-      <c r="AU190" s="8" t="s">
+      <c r="AU190" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AV190" s="2"/>
-      <c r="AW190" s="9"/>
-      <c r="AX190" s="5"/>
+      <c r="AW190" s="2"/>
+      <c r="AX190" s="2"/>
       <c r="AY190" s="2"/>
       <c r="AZ190" s="2"/>
       <c r="BA190" s="2"/>
       <c r="BB190" s="2"/>
       <c r="BC190" s="2"/>
     </row>
-    <row r="191" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="191" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A191" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
@@ -14681,7 +14719,7 @@
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
-      <c r="S191" s="2" t="s">
+      <c r="S191" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T191" s="2"/>
@@ -14727,9 +14765,9 @@
       <c r="BB191" s="2"/>
       <c r="BC191" s="2"/>
     </row>
-    <row r="192" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="192" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A192" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
@@ -14752,7 +14790,7 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
-      <c r="S192" s="2" t="s">
+      <c r="S192" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T192" s="2"/>
@@ -14796,9 +14834,9 @@
       <c r="BB192" s="2"/>
       <c r="BC192" s="2"/>
     </row>
-    <row r="193" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="193" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A193" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -14821,7 +14859,7 @@
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
-      <c r="S193" s="2" t="s">
+      <c r="S193" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T193" s="2"/>
@@ -14867,9 +14905,9 @@
       <c r="BB193" s="2"/>
       <c r="BC193" s="2"/>
     </row>
-    <row r="194" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="194" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A194" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
@@ -14894,7 +14932,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
+      <c r="S194" s="5"/>
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="V194" s="2"/>
@@ -14936,9 +14974,9 @@
       <c r="BB194" s="2"/>
       <c r="BC194" s="2"/>
     </row>
-    <row r="195" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="195" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A195" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -14963,7 +15001,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
-      <c r="S195" s="2" t="s">
+      <c r="S195" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T195" s="2"/>
@@ -15009,9 +15047,9 @@
       <c r="BB195" s="2"/>
       <c r="BC195" s="2"/>
     </row>
-    <row r="196" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="196" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A196" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
@@ -15034,7 +15072,7 @@
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
+      <c r="S196" s="5"/>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
       <c r="V196" s="2"/>
@@ -15078,9 +15116,9 @@
       <c r="BB196" s="2"/>
       <c r="BC196" s="2"/>
     </row>
-    <row r="197" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="197" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A197" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
@@ -15103,7 +15141,7 @@
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
+      <c r="S197" s="5"/>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
       <c r="V197" s="2"/>
@@ -15147,9 +15185,9 @@
       <c r="BB197" s="2"/>
       <c r="BC197" s="2"/>
     </row>
-    <row r="198" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="198" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A198" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -15172,7 +15210,7 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
-      <c r="S198" s="2"/>
+      <c r="S198" s="5"/>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
       <c r="V198" s="2"/>
@@ -15218,9 +15256,9 @@
       <c r="BB198" s="2"/>
       <c r="BC198" s="2"/>
     </row>
-    <row r="199" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="199" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A199" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -15243,7 +15281,7 @@
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
-      <c r="S199" s="2" t="s">
+      <c r="S199" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T199" s="2"/>
@@ -15254,7 +15292,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
       <c r="AA199" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
@@ -15287,9 +15325,9 @@
       <c r="BB199" s="2"/>
       <c r="BC199" s="2"/>
     </row>
-    <row r="200" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="200" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A200" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -15312,7 +15350,7 @@
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
-      <c r="S200" s="2" t="s">
+      <c r="S200" s="5" t="s">
         <v>45</v>
       </c>
       <c r="T200" s="2"/>
@@ -15358,7 +15396,7 @@
       <c r="BB200" s="2"/>
       <c r="BC200" s="2"/>
     </row>
-    <row r="201" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
+    <row r="201" spans="1:55" ht="31.2" x14ac:dyDescent="0.65">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -15377,7 +15415,7 @@
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
+      <c r="S201" s="5"/>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
       <c r="V201" s="2"/>
@@ -15415,176 +15453,482 @@
       <c r="BB201" s="2"/>
       <c r="BC201" s="2"/>
     </row>
-    <row r="202" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
-      <c r="Z202" s="2"/>
-      <c r="AA202" s="5"/>
-      <c r="AB202" s="2"/>
-      <c r="AC202" s="2"/>
-      <c r="AD202" s="2"/>
-      <c r="AE202" s="2"/>
-      <c r="AF202" s="2"/>
-      <c r="AG202" s="2"/>
-      <c r="AH202" s="2"/>
-      <c r="AI202" s="2"/>
-      <c r="AJ202" s="2"/>
-      <c r="AK202" s="2"/>
-      <c r="AL202" s="2"/>
-      <c r="AM202" s="2"/>
-      <c r="AN202" s="2"/>
-      <c r="AO202" s="2"/>
-      <c r="AP202" s="2"/>
-      <c r="AQ202" s="2"/>
-      <c r="AR202" s="2"/>
-      <c r="AS202" s="2"/>
-      <c r="AT202" s="2"/>
-      <c r="AU202" s="8"/>
-      <c r="AV202" s="2"/>
-      <c r="AW202" s="9"/>
-      <c r="AX202" s="5"/>
-      <c r="AY202" s="2"/>
-      <c r="AZ202" s="2"/>
-      <c r="BA202" s="2"/>
-      <c r="BB202" s="2"/>
-      <c r="BC202" s="2"/>
-    </row>
-    <row r="203" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
-      <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
-      <c r="AA203" s="5"/>
-      <c r="AB203" s="2"/>
-      <c r="AC203" s="2"/>
-      <c r="AD203" s="2"/>
-      <c r="AE203" s="2"/>
-      <c r="AF203" s="2"/>
-      <c r="AG203" s="2"/>
-      <c r="AH203" s="2"/>
-      <c r="AI203" s="2"/>
-      <c r="AJ203" s="2"/>
-      <c r="AK203" s="2"/>
-      <c r="AL203" s="2"/>
-      <c r="AM203" s="2"/>
-      <c r="AN203" s="2"/>
-      <c r="AO203" s="2"/>
-      <c r="AP203" s="2"/>
-      <c r="AQ203" s="2"/>
-      <c r="AR203" s="2"/>
-      <c r="AS203" s="2"/>
-      <c r="AT203" s="2"/>
-      <c r="AU203" s="8"/>
-      <c r="AV203" s="2"/>
-      <c r="AW203" s="9"/>
-      <c r="AX203" s="5"/>
-      <c r="AY203" s="2"/>
-      <c r="AZ203" s="2"/>
-      <c r="BA203" s="2"/>
-      <c r="BB203" s="2"/>
-      <c r="BC203" s="2"/>
-    </row>
-    <row r="204" spans="1:55" ht="30.9" x14ac:dyDescent="0.8">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
-      <c r="P204" s="2"/>
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-      <c r="S204" s="2"/>
-      <c r="T204" s="2"/>
-      <c r="U204" s="2"/>
-      <c r="V204" s="2"/>
-      <c r="W204" s="2"/>
-      <c r="X204" s="2"/>
-      <c r="Y204" s="2"/>
-      <c r="Z204" s="2"/>
-      <c r="AA204" s="5"/>
-      <c r="AB204" s="2"/>
-      <c r="AC204" s="2"/>
-      <c r="AD204" s="2"/>
-      <c r="AE204" s="2"/>
-      <c r="AF204" s="2"/>
-      <c r="AG204" s="2"/>
-      <c r="AH204" s="2"/>
-      <c r="AI204" s="2"/>
-      <c r="AJ204" s="2"/>
-      <c r="AK204" s="2"/>
-      <c r="AL204" s="2"/>
-      <c r="AM204" s="2"/>
-      <c r="AN204" s="2"/>
-      <c r="AO204" s="2"/>
-      <c r="AP204" s="2"/>
-      <c r="AQ204" s="2"/>
-      <c r="AR204" s="2"/>
-      <c r="AS204" s="2"/>
-      <c r="AT204" s="2"/>
-      <c r="AU204" s="8"/>
-      <c r="AV204" s="2"/>
-      <c r="AW204" s="9"/>
-      <c r="AX204" s="5"/>
-      <c r="AY204" s="2"/>
-      <c r="AZ204" s="2"/>
-      <c r="BA204" s="2"/>
-      <c r="BB204" s="2"/>
-      <c r="BC204" s="2"/>
+    <row r="202" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A202" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O202" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S202" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI202" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ202" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ202" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV202" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A203" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S203" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE203" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU203" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A204" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K204" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T204" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V204" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA204" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV204" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A205" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P205" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T205" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB205" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX205" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A206" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L206" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T206" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK206" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A207" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV207" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:55" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A208" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U208" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB208" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU208" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="209" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A209" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U209" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ209" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX209" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A210" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY210" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A211" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC211" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ211" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY211" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:51" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.75">
+      <c r="A212" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H212" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P212" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU212" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A213" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P213" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S213" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A214" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU214" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A215" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S215" s="5"/>
+      <c r="T215" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA215" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU215" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW215" s="9"/>
+      <c r="AX215" s="5"/>
+    </row>
+    <row r="216" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A216" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU216" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A217" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S217" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA217" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS217" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV217" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A218" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU218" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A219" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA219" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU219" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A220" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S220" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ220" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ220" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU220" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A221" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX221" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:51" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A222" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S222" s="5"/>
+      <c r="Y222" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA222" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ222" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU222" s="8"/>
+      <c r="AV222" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW222" s="9"/>
+      <c r="AX222" s="5"/>
+    </row>
+    <row r="223" spans="1:51" ht="31.2" x14ac:dyDescent="0.65">
+      <c r="A223" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S223" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA223" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW223" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BC204">
